--- a/data/trans_orig/P16A04-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A04-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC5A8E64-B21D-4D5C-9F10-B160E579F582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A8B5B47-A2BB-4EA4-BF8D-CF24001BC8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2716DEA2-B270-45A0-8186-B6D806459BD0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{89B92B56-2548-4C9D-8B84-2690EB42D475}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="499">
   <si>
     <t>Población que ha consumido antibióticos en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -80,1417 +80,1459 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,64%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
   </si>
   <si>
     <t>97,96%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
   </si>
   <si>
     <t>3,54%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
   </si>
   <si>
     <t>96,46%</t>
   </si>
   <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
   </si>
   <si>
     <t>3,22%</t>
   </si>
   <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
   </si>
   <si>
     <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
   </si>
   <si>
     <t>97,59%</t>
@@ -1905,7 +1947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A7B0EC7-A5F9-4B1B-A27A-6E7EEDAA01C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2534B96D-1A8C-4CC1-B01B-E123BE30F59A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2220,7 +2262,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,13 +2277,13 @@
         <v>487127</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>483</v>
@@ -2250,13 +2292,13 @@
         <v>488375</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>942</v>
@@ -2265,13 +2307,13 @@
         <v>975502</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2327,7 +2369,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2339,13 +2381,13 @@
         <v>949</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -2354,13 +2396,13 @@
         <v>2904</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -2369,13 +2411,13 @@
         <v>3854</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,10 +2432,10 @@
         <v>317897</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -2405,13 +2447,13 @@
         <v>332508</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>641</v>
@@ -2420,13 +2462,13 @@
         <v>650404</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,7 +2524,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2494,13 +2536,13 @@
         <v>6659</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -2509,13 +2551,13 @@
         <v>12101</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -2524,13 +2566,13 @@
         <v>18760</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,13 +2587,13 @@
         <v>352012</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>372</v>
@@ -2560,13 +2602,13 @@
         <v>359355</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>727</v>
@@ -2575,13 +2617,13 @@
         <v>711367</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,7 +2679,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2649,13 +2691,13 @@
         <v>895</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2664,13 +2706,13 @@
         <v>5078</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -2679,13 +2721,13 @@
         <v>5973</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,10 +2742,10 @@
         <v>202413</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>23</v>
@@ -2715,13 +2757,13 @@
         <v>202590</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>398</v>
@@ -2730,13 +2772,13 @@
         <v>405003</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,7 +2834,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2804,13 +2846,13 @@
         <v>3837</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -2819,13 +2861,13 @@
         <v>6982</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -2834,13 +2876,13 @@
         <v>10819</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,13 +2897,13 @@
         <v>266974</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>264</v>
@@ -2870,13 +2912,13 @@
         <v>271162</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>526</v>
@@ -2885,13 +2927,13 @@
         <v>538136</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,7 +2989,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2959,13 +3001,13 @@
         <v>10856</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -2974,13 +3016,13 @@
         <v>5785</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -2989,13 +3031,13 @@
         <v>16641</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,13 +3052,13 @@
         <v>604171</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>615</v>
@@ -3025,13 +3067,13 @@
         <v>632434</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>1202</v>
@@ -3040,13 +3082,13 @@
         <v>1236605</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,7 +3144,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3114,13 +3156,13 @@
         <v>28542</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -3129,13 +3171,13 @@
         <v>19167</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -3144,13 +3186,13 @@
         <v>47709</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,13 +3207,13 @@
         <v>714235</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="H26" s="7">
         <v>727</v>
@@ -3180,13 +3222,13 @@
         <v>764344</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>1434</v>
@@ -3195,13 +3237,13 @@
         <v>1478579</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,13 +3311,13 @@
         <v>58663</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>74</v>
@@ -3284,13 +3326,13 @@
         <v>74790</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>133</v>
@@ -3299,13 +3341,13 @@
         <v>133452</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,16 +3359,16 @@
         <v>3154</v>
       </c>
       <c r="D29" s="7">
-        <v>3216862</v>
+        <v>3216863</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>3223</v>
@@ -3335,28 +3377,28 @@
         <v>3304408</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>6377</v>
       </c>
       <c r="N29" s="7">
-        <v>6521270</v>
+        <v>6521271</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,7 +3410,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3398,7 +3440,7 @@
         <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3412,7 +3454,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3436,7 +3478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF49E1D8-8058-418E-B6C1-F611142E843F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA05812-EBEC-48E8-AF89-36E85D85542C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3453,7 +3495,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3558,39 +3600,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,39 +3645,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,39 +3690,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,13 +3739,13 @@
         <v>9497</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>166</v>
+        <v>69</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -3712,13 +3754,13 @@
         <v>7415</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -3727,13 +3769,13 @@
         <v>16912</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>72</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,13 +3790,13 @@
         <v>495136</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="H8" s="7">
         <v>472</v>
@@ -3763,13 +3805,13 @@
         <v>515316</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>936</v>
@@ -3778,13 +3820,13 @@
         <v>1010452</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>125</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,7 +3882,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3852,13 +3894,13 @@
         <v>3981</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -3867,13 +3909,13 @@
         <v>7978</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>103</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -3882,13 +3924,13 @@
         <v>11959</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,13 +3945,13 @@
         <v>319135</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>309</v>
@@ -3918,13 +3960,13 @@
         <v>333042</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="M11" s="7">
         <v>623</v>
@@ -3933,13 +3975,13 @@
         <v>652177</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,7 +4037,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4007,13 +4049,13 @@
         <v>28323</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -4022,13 +4064,13 @@
         <v>31845</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -4037,13 +4079,13 @@
         <v>60168</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,13 +4100,13 @@
         <v>635863</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="H14" s="7">
         <v>592</v>
@@ -4073,13 +4115,13 @@
         <v>637514</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="M14" s="7">
         <v>1190</v>
@@ -4088,13 +4130,13 @@
         <v>1273377</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,7 +4192,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4162,13 +4204,13 @@
         <v>10457</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -4177,13 +4219,13 @@
         <v>10784</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>136</v>
+        <v>227</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -4192,13 +4234,13 @@
         <v>21241</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,13 +4255,13 @@
         <v>202161</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="H17" s="7">
         <v>201</v>
@@ -4228,13 +4270,13 @@
         <v>207809</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>145</v>
+        <v>236</v>
       </c>
       <c r="M17" s="7">
         <v>389</v>
@@ -4243,13 +4285,13 @@
         <v>409970</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>191</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,7 +4347,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4317,13 +4359,13 @@
         <v>3823</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>239</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -4332,13 +4374,13 @@
         <v>3773</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>225</v>
+        <v>105</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -4347,13 +4389,13 @@
         <v>7595</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>226</v>
+        <v>159</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>150</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4368,10 +4410,10 @@
         <v>270158</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>21</v>
@@ -4383,13 +4425,13 @@
         <v>275367</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>230</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>522</v>
@@ -4398,13 +4440,13 @@
         <v>545526</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,7 +4502,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4472,13 +4514,13 @@
         <v>9956</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -4487,13 +4529,13 @@
         <v>13219</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -4502,13 +4544,13 @@
         <v>23175</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>239</v>
+        <v>165</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4523,13 +4565,13 @@
         <v>650640</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="H23" s="7">
         <v>624</v>
@@ -4538,13 +4580,13 @@
         <v>680634</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="M23" s="7">
         <v>1232</v>
@@ -4553,13 +4595,13 @@
         <v>1331275</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>248</v>
+        <v>175</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,7 +4657,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4627,13 +4669,13 @@
         <v>30769</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>72</v>
+        <v>267</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>131</v>
+        <v>253</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -4642,13 +4684,13 @@
         <v>26304</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
@@ -4657,13 +4699,13 @@
         <v>57073</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4678,13 +4720,13 @@
         <v>746203</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="H26" s="7">
         <v>731</v>
@@ -4693,13 +4735,13 @@
         <v>795216</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>228</v>
+        <v>275</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="M26" s="7">
         <v>1419</v>
@@ -4711,10 +4753,10 @@
         <v>114</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>260</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4824,13 @@
         <v>96805</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>107</v>
+        <v>281</v>
       </c>
       <c r="H28" s="7">
         <v>93</v>
@@ -4797,13 +4839,13 @@
         <v>101318</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>90</v>
+        <v>282</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="M28" s="7">
         <v>176</v>
@@ -4812,13 +4854,13 @@
         <v>198123</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,16 +4872,16 @@
         <v>3117</v>
       </c>
       <c r="D29" s="7">
-        <v>3319297</v>
+        <v>3319298</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>114</v>
+        <v>289</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="H29" s="7">
         <v>3194</v>
@@ -4848,13 +4890,13 @@
         <v>3444899</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>97</v>
+        <v>291</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="M29" s="7">
         <v>6311</v>
@@ -4863,13 +4905,13 @@
         <v>6764197</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,7 +4923,7 @@
         <v>3200</v>
       </c>
       <c r="D30" s="7">
-        <v>3416102</v>
+        <v>3416103</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -4925,7 +4967,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4949,7 +4991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569DAF6B-E2C1-49E4-9366-08C8968543AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A08147-B6EC-4DDE-AF4F-2C96B656F4F1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4966,7 +5008,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5073,13 +5115,13 @@
         <v>4462</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>277</v>
+        <v>33</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>66</v>
+        <v>299</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -5088,13 +5130,13 @@
         <v>8732</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>226</v>
+        <v>159</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -5103,13 +5145,13 @@
         <v>13194</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,13 +5166,13 @@
         <v>289299</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>74</v>
+        <v>305</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>282</v>
+        <v>43</v>
       </c>
       <c r="H5" s="7">
         <v>269</v>
@@ -5139,13 +5181,13 @@
         <v>279971</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="M5" s="7">
         <v>531</v>
@@ -5154,13 +5196,13 @@
         <v>569270</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>173</v>
+        <v>308</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5228,13 +5270,13 @@
         <v>9555</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>286</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>287</v>
+        <v>124</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5243,13 +5285,13 @@
         <v>7044</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>312</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -5258,13 +5300,13 @@
         <v>16600</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>86</v>
+        <v>314</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>290</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,13 +5321,13 @@
         <v>493020</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>291</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>210</v>
+        <v>315</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>292</v>
+        <v>134</v>
       </c>
       <c r="H8" s="7">
         <v>477</v>
@@ -5294,13 +5336,13 @@
         <v>516040</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>28</v>
+        <v>316</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="M8" s="7">
         <v>943</v>
@@ -5309,13 +5351,13 @@
         <v>1009059</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>295</v>
+        <v>152</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>95</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5371,7 +5413,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5383,13 +5425,13 @@
         <v>7508</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>212</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>86</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5398,13 +5440,13 @@
         <v>6725</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>72</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -5413,13 +5455,13 @@
         <v>14233</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>280</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5434,13 +5476,13 @@
         <v>311057</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>95</v>
+        <v>331</v>
       </c>
       <c r="H11" s="7">
         <v>325</v>
@@ -5449,13 +5491,13 @@
         <v>329584</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>80</v>
+        <v>333</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="M11" s="7">
         <v>652</v>
@@ -5464,13 +5506,13 @@
         <v>640641</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,7 +5568,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5538,13 +5580,13 @@
         <v>9201</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -5553,13 +5595,13 @@
         <v>10088</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>307</v>
+        <v>227</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>37</v>
+        <v>342</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -5568,13 +5610,13 @@
         <v>19289</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,13 +5631,13 @@
         <v>360763</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="H14" s="7">
         <v>349</v>
@@ -5604,13 +5646,13 @@
         <v>377195</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>315</v>
+        <v>236</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>44</v>
+        <v>349</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
         <v>694</v>
@@ -5619,13 +5661,13 @@
         <v>737958</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,7 +5723,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5693,13 +5735,13 @@
         <v>3477</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>170</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>320</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5708,13 +5750,13 @@
         <v>6502</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>322</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -5723,13 +5765,13 @@
         <v>9979</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>325</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5744,13 +5786,13 @@
         <v>207744</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>326</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>217</v>
@@ -5759,13 +5801,13 @@
         <v>212085</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>329</v>
+        <v>206</v>
       </c>
       <c r="M17" s="7">
         <v>426</v>
@@ -5774,13 +5816,13 @@
         <v>419829</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,7 +5878,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5848,13 +5890,13 @@
         <v>3554</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>332</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -5863,13 +5905,13 @@
         <v>2775</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>322</v>
+        <v>197</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -5878,13 +5920,13 @@
         <v>6329</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>337</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5899,13 +5941,13 @@
         <v>259569</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>338</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>260</v>
@@ -5914,13 +5956,13 @@
         <v>270340</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>329</v>
+        <v>206</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="M20" s="7">
         <v>515</v>
@@ -5929,13 +5971,13 @@
         <v>529909</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,7 +6033,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6003,13 +6045,13 @@
         <v>21319</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>345</v>
+        <v>36</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>346</v>
+        <v>223</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -6018,13 +6060,13 @@
         <v>19173</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>289</v>
+        <v>162</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="M22" s="7">
         <v>34</v>
@@ -6033,13 +6075,13 @@
         <v>40492</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>349</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6054,13 +6096,13 @@
         <v>635239</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>351</v>
+        <v>263</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>352</v>
+        <v>231</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>353</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>630</v>
@@ -6069,13 +6111,13 @@
         <v>672121</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>294</v>
+        <v>172</v>
       </c>
       <c r="M23" s="7">
         <v>1192</v>
@@ -6084,13 +6126,13 @@
         <v>1307360</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>357</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6146,7 +6188,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6158,13 +6200,13 @@
         <v>10059</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -6173,13 +6215,13 @@
         <v>18924</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>362</v>
+        <v>284</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -6188,13 +6230,13 @@
         <v>28983</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>365</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6209,13 +6251,13 @@
         <v>768524</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="H26" s="7">
         <v>738</v>
@@ -6224,13 +6266,13 @@
         <v>807243</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>370</v>
+        <v>292</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="M26" s="7">
         <v>1478</v>
@@ -6239,13 +6281,13 @@
         <v>1575767</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>372</v>
+        <v>260</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,13 +6355,13 @@
         <v>69134</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>13</v>
+        <v>390</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>71</v>
+        <v>391</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>131</v>
+        <v>392</v>
       </c>
       <c r="H28" s="7">
         <v>73</v>
@@ -6328,13 +6370,13 @@
         <v>79964</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>90</v>
+        <v>394</v>
       </c>
       <c r="M28" s="7">
         <v>138</v>
@@ -6343,13 +6385,13 @@
         <v>149098</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>120</v>
+        <v>396</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6364,13 +6406,13 @@
         <v>3325216</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>22</v>
+        <v>398</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>140</v>
+        <v>399</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="H29" s="7">
         <v>3265</v>
@@ -6379,13 +6421,13 @@
         <v>3464578</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>97</v>
+        <v>402</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="M29" s="7">
         <v>6431</v>
@@ -6394,13 +6436,13 @@
         <v>6789794</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>126</v>
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6456,7 +6498,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6480,7 +6522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F47690-CE8E-46F1-A912-0A6D70EA2881}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0706F991-F778-4ECD-A646-F8599196B65F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6497,7 +6539,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6604,13 +6646,13 @@
         <v>795</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>152</v>
+        <v>407</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -6619,13 +6661,13 @@
         <v>5962</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>409</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -6634,13 +6676,13 @@
         <v>6756</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>359</v>
+        <v>411</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6655,10 +6697,10 @@
         <v>259503</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>161</v>
+        <v>413</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -6670,13 +6712,13 @@
         <v>265441</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>329</v>
+        <v>415</v>
       </c>
       <c r="M5" s="7">
         <v>857</v>
@@ -6685,13 +6727,13 @@
         <v>524944</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>387</v>
+        <v>416</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>388</v>
+        <v>417</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>368</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6759,13 +6801,13 @@
         <v>8312</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>71</v>
+        <v>419</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -6774,13 +6816,13 @@
         <v>12051</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>200</v>
+        <v>422</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -6789,13 +6831,13 @@
         <v>20363</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>286</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>392</v>
+        <v>194</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>393</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6810,13 +6852,13 @@
         <v>509915</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>81</v>
+        <v>424</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="H8" s="7">
         <v>698</v>
@@ -6825,13 +6867,13 @@
         <v>541165</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>210</v>
+        <v>427</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>387</v>
+        <v>416</v>
       </c>
       <c r="M8" s="7">
         <v>1073</v>
@@ -6840,13 +6882,13 @@
         <v>1051080</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>291</v>
+        <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>398</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6902,7 +6944,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6914,13 +6956,13 @@
         <v>15399</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>399</v>
+        <v>429</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="H10" s="7">
         <v>28</v>
@@ -6929,13 +6971,13 @@
         <v>18299</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>403</v>
+        <v>433</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="M10" s="7">
         <v>45</v>
@@ -6944,13 +6986,13 @@
         <v>33698</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>405</v>
+        <v>435</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>264</v>
+        <v>436</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>406</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6965,13 +7007,13 @@
         <v>306321</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>407</v>
+        <v>438</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>408</v>
+        <v>439</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>409</v>
+        <v>440</v>
       </c>
       <c r="H11" s="7">
         <v>508</v>
@@ -6980,13 +7022,13 @@
         <v>354985</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>410</v>
+        <v>441</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>411</v>
+        <v>442</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>412</v>
+        <v>443</v>
       </c>
       <c r="M11" s="7">
         <v>850</v>
@@ -6995,13 +7037,13 @@
         <v>661305</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>413</v>
+        <v>444</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>414</v>
+        <v>445</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>270</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7057,7 +7099,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7069,13 +7111,13 @@
         <v>2813</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>415</v>
+        <v>447</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>238</v>
+        <v>448</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -7084,13 +7126,13 @@
         <v>6139</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>416</v>
+        <v>449</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>18</v>
+        <v>450</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -7099,13 +7141,13 @@
         <v>8952</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>418</v>
+        <v>15</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>389</v>
+        <v>56</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7120,13 +7162,13 @@
         <v>319427</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>246</v>
+        <v>452</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="H14" s="7">
         <v>590</v>
@@ -7135,13 +7177,13 @@
         <v>422061</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>29</v>
+        <v>456</v>
       </c>
       <c r="M14" s="7">
         <v>879</v>
@@ -7150,13 +7192,13 @@
         <v>741488</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>422</v>
+        <v>26</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>346</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>395</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7212,7 +7254,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7224,13 +7266,13 @@
         <v>1507</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>424</v>
+        <v>184</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -7239,13 +7281,13 @@
         <v>5335</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>425</v>
+        <v>160</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>426</v>
+        <v>191</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>427</v>
+        <v>267</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -7254,13 +7296,13 @@
         <v>6842</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>71</v>
+        <v>419</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>19</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7275,10 +7317,10 @@
         <v>195241</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>430</v>
+        <v>189</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>23</v>
@@ -7290,13 +7332,13 @@
         <v>226568</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>431</v>
+        <v>168</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>432</v>
+        <v>273</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>433</v>
+        <v>199</v>
       </c>
       <c r="M17" s="7">
         <v>757</v>
@@ -7305,13 +7347,13 @@
         <v>421809</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>424</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>28</v>
+        <v>402</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,7 +7409,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7379,13 +7421,13 @@
         <v>12598</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -7394,13 +7436,13 @@
         <v>12802</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>437</v>
+        <v>195</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>393</v>
+        <v>282</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>438</v>
+        <v>463</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
@@ -7409,13 +7451,13 @@
         <v>25399</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>439</v>
+        <v>464</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>440</v>
+        <v>210</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7430,13 +7472,13 @@
         <v>264625</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="H20" s="7">
         <v>438</v>
@@ -7445,13 +7487,13 @@
         <v>262820</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>444</v>
+        <v>202</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>397</v>
+        <v>291</v>
       </c>
       <c r="M20" s="7">
         <v>790</v>
@@ -7460,13 +7502,13 @@
         <v>527446</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>448</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7522,7 +7564,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7534,13 +7576,13 @@
         <v>30261</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>449</v>
+        <v>471</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>417</v>
+        <v>71</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>450</v>
+        <v>472</v>
       </c>
       <c r="H22" s="7">
         <v>70</v>
@@ -7549,13 +7591,13 @@
         <v>47120</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>451</v>
+        <v>473</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>453</v>
+        <v>475</v>
       </c>
       <c r="M22" s="7">
         <v>99</v>
@@ -7564,13 +7606,13 @@
         <v>77381</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>454</v>
+        <v>91</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>167</v>
+        <v>476</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>455</v>
+        <v>477</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7585,13 +7627,13 @@
         <v>597493</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>421</v>
+        <v>80</v>
       </c>
       <c r="H23" s="7">
         <v>890</v>
@@ -7600,13 +7642,13 @@
         <v>757083</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="M23" s="7">
         <v>1460</v>
@@ -7615,13 +7657,13 @@
         <v>1354576</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>461</v>
+        <v>98</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>173</v>
+        <v>484</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7677,7 +7719,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7689,13 +7731,13 @@
         <v>6911</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>463</v>
+        <v>69</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>464</v>
+        <v>485</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>465</v>
+        <v>283</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -7704,13 +7746,13 @@
         <v>14868</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>466</v>
+        <v>162</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>234</v>
+        <v>486</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -7719,13 +7761,13 @@
         <v>21779</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>468</v>
+        <v>341</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>470</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7740,13 +7782,13 @@
         <v>852517</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>471</v>
+        <v>79</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>472</v>
+        <v>293</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="H26" s="7">
         <v>1049</v>
@@ -7755,13 +7797,13 @@
         <v>850163</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>474</v>
+        <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>244</v>
+        <v>491</v>
       </c>
       <c r="M26" s="7">
         <v>1806</v>
@@ -7770,13 +7812,13 @@
         <v>1702680</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>476</v>
+        <v>350</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>477</v>
+        <v>402</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7844,13 +7886,13 @@
         <v>78595</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>363</v>
+        <v>493</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>334</v>
+        <v>229</v>
       </c>
       <c r="H28" s="7">
         <v>179</v>
@@ -7859,13 +7901,13 @@
         <v>122576</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>197</v>
+        <v>494</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>479</v>
+        <v>242</v>
       </c>
       <c r="M28" s="7">
         <v>261</v>
@@ -7874,13 +7916,13 @@
         <v>201171</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>480</v>
+        <v>430</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>390</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7892,16 +7934,16 @@
         <v>3292</v>
       </c>
       <c r="D29" s="7">
-        <v>3305041</v>
+        <v>3305042</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>339</v>
+        <v>238</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>371</v>
+        <v>496</v>
       </c>
       <c r="H29" s="7">
         <v>5180</v>
@@ -7910,13 +7952,13 @@
         <v>3680286</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>207</v>
+        <v>497</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>482</v>
+        <v>248</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>249</v>
+        <v>316</v>
       </c>
       <c r="M29" s="7">
         <v>8472</v>
@@ -7925,13 +7967,13 @@
         <v>6985327</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>483</v>
+        <v>440</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>394</v>
+        <v>295</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7943,7 +7985,7 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3383636</v>
+        <v>3383637</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -7987,7 +8029,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A04-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A04-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A8B5B47-A2BB-4EA4-BF8D-CF24001BC8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B40D5FBD-AD21-4AC7-B959-8122AF023A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{89B92B56-2548-4C9D-8B84-2690EB42D475}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9D5577B1-F4C8-4317-9DDE-A2C68C815D46}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="479">
   <si>
     <t>Población que ha consumido antibióticos en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -80,1459 +80,1399 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
     <t>1,9%</t>
   </si>
   <si>
-    <t>2,76%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
   </si>
   <si>
     <t>98,81%</t>
   </si>
   <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,86%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
   </si>
   <si>
     <t>99,2%</t>
   </si>
   <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
   </si>
   <si>
     <t>98,28%</t>
   </si>
   <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
   </si>
   <si>
     <t>96,02%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
   </si>
   <si>
     <t>97,59%</t>
@@ -1947,7 +1887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2534B96D-1A8C-4CC1-B01B-E123BE30F59A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188964C4-285C-4B4F-98AC-F5C2EE0F43E7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2417,7 +2357,7 @@
         <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2432,10 +2372,10 @@
         <v>317897</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -2447,13 +2387,13 @@
         <v>332508</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>641</v>
@@ -2462,13 +2402,13 @@
         <v>650404</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,7 +2464,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2536,13 +2476,13 @@
         <v>6659</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -2551,13 +2491,13 @@
         <v>12101</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -2566,13 +2506,13 @@
         <v>18760</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,13 +2527,13 @@
         <v>352012</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>372</v>
@@ -2602,13 +2542,13 @@
         <v>359355</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>727</v>
@@ -2617,13 +2557,13 @@
         <v>711367</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2679,7 +2619,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2691,13 +2631,13 @@
         <v>895</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2706,13 +2646,13 @@
         <v>5078</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -2721,13 +2661,13 @@
         <v>5973</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,10 +2682,10 @@
         <v>202413</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>23</v>
@@ -2757,13 +2697,13 @@
         <v>202590</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="M17" s="7">
         <v>398</v>
@@ -2772,13 +2712,13 @@
         <v>405003</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2834,7 +2774,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2846,13 +2786,13 @@
         <v>3837</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -2861,13 +2801,13 @@
         <v>6982</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -2876,13 +2816,13 @@
         <v>10819</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,13 +2837,13 @@
         <v>266974</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="H20" s="7">
         <v>264</v>
@@ -2912,13 +2852,13 @@
         <v>271162</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>526</v>
@@ -2927,13 +2867,13 @@
         <v>538136</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,7 +2929,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3001,13 +2941,13 @@
         <v>10856</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -3016,13 +2956,13 @@
         <v>5785</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -3031,13 +2971,13 @@
         <v>16641</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,13 +2992,13 @@
         <v>604171</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H23" s="7">
         <v>615</v>
@@ -3067,13 +3007,13 @@
         <v>632434</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="M23" s="7">
         <v>1202</v>
@@ -3082,13 +3022,13 @@
         <v>1236605</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,7 +3084,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3156,13 +3096,13 @@
         <v>28542</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -3171,13 +3111,13 @@
         <v>19167</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -3186,13 +3126,13 @@
         <v>47709</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,13 +3147,13 @@
         <v>714235</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="H26" s="7">
         <v>727</v>
@@ -3222,13 +3162,13 @@
         <v>764344</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="M26" s="7">
         <v>1434</v>
@@ -3237,13 +3177,13 @@
         <v>1478579</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,13 +3251,13 @@
         <v>58663</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="H28" s="7">
         <v>74</v>
@@ -3326,13 +3266,13 @@
         <v>74790</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="M28" s="7">
         <v>133</v>
@@ -3341,13 +3281,13 @@
         <v>133452</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,16 +3299,16 @@
         <v>3154</v>
       </c>
       <c r="D29" s="7">
-        <v>3216863</v>
+        <v>3216862</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="H29" s="7">
         <v>3223</v>
@@ -3377,13 +3317,13 @@
         <v>3304408</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="M29" s="7">
         <v>6377</v>
@@ -3392,13 +3332,13 @@
         <v>6521271</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,7 +3350,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3454,7 +3394,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3478,7 +3418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA05812-EBEC-48E8-AF89-36E85D85542C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D21C703-5F4C-4A42-9D62-6671FA90719B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3495,7 +3435,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3600,39 +3540,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,39 +3585,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,39 +3630,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,13 +3679,13 @@
         <v>9497</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -3754,13 +3694,13 @@
         <v>7415</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>56</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -3769,13 +3709,13 @@
         <v>16912</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>87</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,13 +3730,13 @@
         <v>495136</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="H8" s="7">
         <v>472</v>
@@ -3805,13 +3745,13 @@
         <v>515316</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>63</v>
       </c>
       <c r="M8" s="7">
         <v>936</v>
@@ -3820,13 +3760,13 @@
         <v>1010452</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>190</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,13 +3834,13 @@
         <v>3981</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -3909,13 +3849,13 @@
         <v>7978</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -3924,13 +3864,13 @@
         <v>11959</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,13 +3885,13 @@
         <v>319135</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>201</v>
+        <v>127</v>
       </c>
       <c r="H11" s="7">
         <v>309</v>
@@ -3960,13 +3900,13 @@
         <v>333042</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="M11" s="7">
         <v>623</v>
@@ -3975,13 +3915,13 @@
         <v>652177</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>204</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,7 +3977,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4049,13 +3989,13 @@
         <v>28323</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -4064,13 +4004,13 @@
         <v>31845</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -4079,13 +4019,13 @@
         <v>60168</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,13 +4040,13 @@
         <v>635863</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="H14" s="7">
         <v>592</v>
@@ -4115,13 +4055,13 @@
         <v>637514</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="M14" s="7">
         <v>1190</v>
@@ -4130,13 +4070,13 @@
         <v>1273377</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,7 +4132,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4204,13 +4144,13 @@
         <v>10457</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -4219,13 +4159,13 @@
         <v>10784</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -4234,13 +4174,13 @@
         <v>21241</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,13 +4195,13 @@
         <v>202161</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="H17" s="7">
         <v>201</v>
@@ -4270,13 +4210,13 @@
         <v>207809</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="M17" s="7">
         <v>389</v>
@@ -4285,13 +4225,13 @@
         <v>409970</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,7 +4287,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4359,13 +4299,13 @@
         <v>3823</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -4374,13 +4314,13 @@
         <v>3773</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -4389,13 +4329,13 @@
         <v>7595</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>159</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,13 +4350,13 @@
         <v>270158</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="H20" s="7">
         <v>265</v>
@@ -4425,13 +4365,13 @@
         <v>275367</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
         <v>522</v>
@@ -4440,13 +4380,13 @@
         <v>545526</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4502,7 +4442,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4514,13 +4454,13 @@
         <v>9956</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -4529,13 +4469,13 @@
         <v>13219</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -4544,13 +4484,13 @@
         <v>23175</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,13 +4505,13 @@
         <v>650640</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="H23" s="7">
         <v>624</v>
@@ -4580,13 +4520,13 @@
         <v>680634</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="M23" s="7">
         <v>1232</v>
@@ -4595,13 +4535,13 @@
         <v>1331275</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4657,7 +4597,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4669,13 +4609,13 @@
         <v>30769</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -4684,13 +4624,13 @@
         <v>26304</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
@@ -4699,13 +4639,13 @@
         <v>57073</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>106</v>
+        <v>252</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>143</v>
+        <v>253</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,13 +4660,13 @@
         <v>746203</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H26" s="7">
         <v>731</v>
@@ -4735,13 +4675,13 @@
         <v>795216</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="M26" s="7">
         <v>1419</v>
@@ -4750,13 +4690,13 @@
         <v>1541419</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>114</v>
+        <v>260</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>152</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,13 +4764,13 @@
         <v>96805</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="H28" s="7">
         <v>93</v>
@@ -4839,13 +4779,13 @@
         <v>101318</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>283</v>
+        <v>137</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="M28" s="7">
         <v>176</v>
@@ -4854,13 +4794,13 @@
         <v>198123</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>286</v>
+        <v>34</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,16 +4812,16 @@
         <v>3117</v>
       </c>
       <c r="D29" s="7">
-        <v>3319298</v>
+        <v>3319297</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="H29" s="7">
         <v>3194</v>
@@ -4890,28 +4830,28 @@
         <v>3444899</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>293</v>
+        <v>145</v>
       </c>
       <c r="M29" s="7">
         <v>6311</v>
       </c>
       <c r="N29" s="7">
-        <v>6764197</v>
+        <v>6764196</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>296</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,7 +4863,7 @@
         <v>3200</v>
       </c>
       <c r="D30" s="7">
-        <v>3416103</v>
+        <v>3416102</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -4953,7 +4893,7 @@
         <v>6487</v>
       </c>
       <c r="N30" s="7">
-        <v>6962320</v>
+        <v>6962319</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -4967,7 +4907,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4991,7 +4931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A08147-B6EC-4DDE-AF4F-2C96B656F4F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEA5826-8DE8-4F7C-A461-4AC8D7E6549F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5008,7 +4948,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5115,13 +5055,13 @@
         <v>4462</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>33</v>
+        <v>279</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>299</v>
+        <v>220</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -5130,13 +5070,13 @@
         <v>8732</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>280</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -5145,13 +5085,13 @@
         <v>13194</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>302</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5106,13 @@
         <v>289299</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>305</v>
+        <v>227</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>43</v>
+        <v>284</v>
       </c>
       <c r="H5" s="7">
         <v>269</v>
@@ -5181,13 +5121,13 @@
         <v>279971</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>285</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
       <c r="M5" s="7">
         <v>531</v>
@@ -5196,13 +5136,13 @@
         <v>569270</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>309</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5270,13 +5210,13 @@
         <v>9555</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>288</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>124</v>
+        <v>289</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>310</v>
+        <v>69</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5285,13 +5225,13 @@
         <v>7044</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>311</v>
+        <v>56</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>312</v>
+        <v>233</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -5300,13 +5240,13 @@
         <v>16600</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>143</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,13 +5261,13 @@
         <v>493020</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>22</v>
+        <v>293</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>134</v>
+        <v>294</v>
       </c>
       <c r="H8" s="7">
         <v>477</v>
@@ -5336,13 +5276,13 @@
         <v>516040</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>316</v>
+        <v>240</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>317</v>
+        <v>63</v>
       </c>
       <c r="M8" s="7">
         <v>943</v>
@@ -5351,13 +5291,13 @@
         <v>1009059</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>152</v>
+        <v>296</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5425,13 +5365,13 @@
         <v>7508</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>320</v>
+        <v>153</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5440,13 +5380,13 @@
         <v>6725</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>325</v>
+        <v>135</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -5455,13 +5395,13 @@
         <v>14233</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5476,13 +5416,13 @@
         <v>311057</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>329</v>
+        <v>160</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="H11" s="7">
         <v>325</v>
@@ -5491,13 +5431,13 @@
         <v>329584</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>333</v>
+        <v>142</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="M11" s="7">
         <v>652</v>
@@ -5506,13 +5446,13 @@
         <v>640641</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,7 +5508,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5580,13 +5520,13 @@
         <v>9201</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>339</v>
+        <v>298</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -5595,13 +5535,13 @@
         <v>10088</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>227</v>
+        <v>314</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -5610,13 +5550,13 @@
         <v>19289</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>344</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>345</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,13 +5571,13 @@
         <v>360763</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>348</v>
+        <v>306</v>
       </c>
       <c r="H14" s="7">
         <v>349</v>
@@ -5646,13 +5586,13 @@
         <v>377195</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="M14" s="7">
         <v>694</v>
@@ -5661,13 +5601,13 @@
         <v>737958</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>352</v>
+        <v>142</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>353</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,7 +5663,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5735,13 +5675,13 @@
         <v>3477</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>87</v>
+        <v>324</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5750,13 +5690,13 @@
         <v>6502</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>355</v>
+        <v>207</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>326</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -5765,13 +5705,13 @@
         <v>9979</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>357</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,13 +5726,13 @@
         <v>207744</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>330</v>
       </c>
       <c r="H17" s="7">
         <v>217</v>
@@ -5801,13 +5741,13 @@
         <v>212085</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>359</v>
+        <v>216</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>332</v>
       </c>
       <c r="M17" s="7">
         <v>426</v>
@@ -5816,13 +5756,13 @@
         <v>419829</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>361</v>
+        <v>144</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,7 +5818,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5890,13 +5830,13 @@
         <v>3554</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>334</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -5905,13 +5845,13 @@
         <v>2775</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>197</v>
+        <v>289</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>362</v>
+        <v>119</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -5920,13 +5860,13 @@
         <v>6329</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>364</v>
+        <v>15</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>366</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5941,13 +5881,13 @@
         <v>259569</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>337</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="H20" s="7">
         <v>260</v>
@@ -5956,13 +5896,13 @@
         <v>270340</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>206</v>
+        <v>294</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>368</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>515</v>
@@ -5971,13 +5911,13 @@
         <v>529909</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>369</v>
+        <v>26</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>370</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6033,7 +5973,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6045,13 +5985,13 @@
         <v>21319</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>256</v>
+        <v>340</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>36</v>
+        <v>341</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>223</v>
+        <v>342</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -6060,13 +6000,13 @@
         <v>19173</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>163</v>
+        <v>343</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>162</v>
+        <v>344</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="M22" s="7">
         <v>34</v>
@@ -6075,13 +6015,13 @@
         <v>40492</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6096,13 +6036,13 @@
         <v>635239</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>263</v>
+        <v>348</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>231</v>
+        <v>349</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>46</v>
+        <v>350</v>
       </c>
       <c r="H23" s="7">
         <v>630</v>
@@ -6111,13 +6051,13 @@
         <v>672121</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>171</v>
+        <v>351</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>172</v>
+        <v>353</v>
       </c>
       <c r="M23" s="7">
         <v>1192</v>
@@ -6126,13 +6066,13 @@
         <v>1307360</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6188,7 +6128,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6200,13 +6140,13 @@
         <v>10059</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -6215,13 +6155,13 @@
         <v>18924</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>39</v>
+        <v>360</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -6230,13 +6170,13 @@
         <v>28983</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6251,13 +6191,13 @@
         <v>768524</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="H26" s="7">
         <v>738</v>
@@ -6266,13 +6206,13 @@
         <v>807243</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>49</v>
+        <v>368</v>
       </c>
       <c r="M26" s="7">
         <v>1478</v>
@@ -6281,13 +6221,13 @@
         <v>1575767</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>260</v>
+        <v>370</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6355,13 +6295,13 @@
         <v>69134</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>390</v>
+        <v>13</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>392</v>
+        <v>292</v>
       </c>
       <c r="H28" s="7">
         <v>73</v>
@@ -6370,13 +6310,13 @@
         <v>79964</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="M28" s="7">
         <v>138</v>
@@ -6385,13 +6325,13 @@
         <v>149098</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6406,13 +6346,13 @@
         <v>3325216</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>398</v>
+        <v>22</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>399</v>
+        <v>296</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="H29" s="7">
         <v>3265</v>
@@ -6421,13 +6361,13 @@
         <v>3464578</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="M29" s="7">
         <v>6431</v>
@@ -6436,13 +6376,13 @@
         <v>6789794</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,7 +6438,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -6522,7 +6462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0706F991-F778-4ECD-A646-F8599196B65F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00066F63-863D-4AE1-8856-CFC8309773ED}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6539,7 +6479,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6646,13 +6586,13 @@
         <v>795</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>192</v>
+        <v>383</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -6661,13 +6601,13 @@
         <v>5962</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>342</v>
+        <v>387</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -6676,13 +6616,13 @@
         <v>6756</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>410</v>
+        <v>303</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>412</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,10 +6637,10 @@
         <v>259503</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>201</v>
+        <v>389</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -6712,13 +6652,13 @@
         <v>265441</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="M5" s="7">
         <v>857</v>
@@ -6727,13 +6667,13 @@
         <v>524944</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>416</v>
+        <v>311</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>417</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6801,13 +6741,13 @@
         <v>8312</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>419</v>
+        <v>344</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>420</v>
+        <v>222</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -6816,13 +6756,13 @@
         <v>12051</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>410</v>
+        <v>303</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>422</v>
+        <v>267</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -6831,13 +6771,13 @@
         <v>20363</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>288</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>194</v>
+        <v>397</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6852,13 +6792,13 @@
         <v>509915</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>424</v>
+        <v>353</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>426</v>
+        <v>230</v>
       </c>
       <c r="H8" s="7">
         <v>698</v>
@@ -6867,13 +6807,13 @@
         <v>541165</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>427</v>
+        <v>274</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>416</v>
+        <v>311</v>
       </c>
       <c r="M8" s="7">
         <v>1073</v>
@@ -6882,13 +6822,13 @@
         <v>1051080</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>22</v>
+        <v>293</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>203</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6956,13 +6896,13 @@
         <v>15399</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>429</v>
+        <v>316</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>430</v>
+        <v>403</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="H10" s="7">
         <v>28</v>
@@ -6971,13 +6911,13 @@
         <v>18299</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>432</v>
+        <v>405</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>433</v>
+        <v>406</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
       <c r="M10" s="7">
         <v>45</v>
@@ -6986,13 +6926,13 @@
         <v>33698</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>436</v>
+        <v>304</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7007,13 +6947,13 @@
         <v>306321</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>438</v>
+        <v>321</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="H11" s="7">
         <v>508</v>
@@ -7022,13 +6962,13 @@
         <v>354985</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>443</v>
+        <v>414</v>
       </c>
       <c r="M11" s="7">
         <v>850</v>
@@ -7037,13 +6977,13 @@
         <v>661305</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>444</v>
+        <v>415</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>445</v>
+        <v>416</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7099,7 +7039,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7114,10 +7054,10 @@
         <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>447</v>
+        <v>417</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -7126,13 +7066,13 @@
         <v>6139</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -7141,13 +7081,13 @@
         <v>8952</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>15</v>
+        <v>362</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>56</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7162,13 +7102,13 @@
         <v>319427</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="H14" s="7">
         <v>590</v>
@@ -7177,13 +7117,13 @@
         <v>422061</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="M14" s="7">
         <v>879</v>
@@ -7192,13 +7132,13 @@
         <v>741488</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>26</v>
+        <v>371</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7254,7 +7194,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7266,13 +7206,13 @@
         <v>1507</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -7281,13 +7221,13 @@
         <v>5335</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>160</v>
+        <v>428</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -7296,13 +7236,13 @@
         <v>6842</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>419</v>
+        <v>344</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>458</v>
+        <v>301</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7317,10 +7257,10 @@
         <v>195241</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>23</v>
@@ -7332,13 +7272,13 @@
         <v>226568</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>168</v>
+        <v>430</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="M17" s="7">
         <v>757</v>
@@ -7347,13 +7287,13 @@
         <v>421809</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>424</v>
+        <v>353</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>157</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>460</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7409,7 +7349,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7421,13 +7361,13 @@
         <v>12598</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>182</v>
+        <v>432</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -7436,13 +7376,13 @@
         <v>12802</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>195</v>
+        <v>434</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
@@ -7451,13 +7391,13 @@
         <v>25399</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>210</v>
+        <v>437</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7472,13 +7412,13 @@
         <v>264625</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>466</v>
+        <v>439</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>187</v>
+        <v>441</v>
       </c>
       <c r="H20" s="7">
         <v>438</v>
@@ -7487,13 +7427,13 @@
         <v>262820</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>202</v>
+        <v>442</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="M20" s="7">
         <v>790</v>
@@ -7502,13 +7442,13 @@
         <v>527446</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>219</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7564,7 +7504,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7576,13 +7516,13 @@
         <v>30261</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="H22" s="7">
         <v>70</v>
@@ -7591,13 +7531,13 @@
         <v>47120</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>473</v>
+        <v>191</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>474</v>
+        <v>105</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="M22" s="7">
         <v>99</v>
@@ -7606,13 +7546,13 @@
         <v>77381</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7627,13 +7567,13 @@
         <v>597493</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>478</v>
+        <v>452</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H23" s="7">
         <v>890</v>
@@ -7642,13 +7582,13 @@
         <v>757083</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>480</v>
+        <v>199</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>482</v>
+        <v>112</v>
       </c>
       <c r="M23" s="7">
         <v>1460</v>
@@ -7657,13 +7597,13 @@
         <v>1354576</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>483</v>
+        <v>455</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7719,7 +7659,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7731,13 +7671,13 @@
         <v>6911</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>69</v>
+        <v>457</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>283</v>
+        <v>459</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -7746,13 +7686,13 @@
         <v>14868</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>162</v>
+        <v>460</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>486</v>
+        <v>357</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>487</v>
+        <v>461</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -7761,13 +7701,13 @@
         <v>21779</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>341</v>
+        <v>462</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>394</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7782,13 +7722,13 @@
         <v>852517</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>79</v>
+        <v>464</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>293</v>
+        <v>465</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="H26" s="7">
         <v>1049</v>
@@ -7797,13 +7737,13 @@
         <v>850163</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>467</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>491</v>
+        <v>366</v>
       </c>
       <c r="M26" s="7">
         <v>1806</v>
@@ -7812,13 +7752,13 @@
         <v>1702680</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>350</v>
+        <v>469</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>402</v>
+        <v>157</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>492</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7886,13 +7826,13 @@
         <v>78595</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>229</v>
+        <v>280</v>
       </c>
       <c r="H28" s="7">
         <v>179</v>
@@ -7901,13 +7841,13 @@
         <v>122576</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>312</v>
+        <v>253</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>242</v>
+        <v>473</v>
       </c>
       <c r="M28" s="7">
         <v>261</v>
@@ -7916,13 +7856,13 @@
         <v>201171</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>430</v>
+        <v>403</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>287</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7937,13 +7877,13 @@
         <v>3305042</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>238</v>
+        <v>285</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="H29" s="7">
         <v>5180</v>
@@ -7952,13 +7892,13 @@
         <v>3680286</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>248</v>
+        <v>477</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>316</v>
+        <v>262</v>
       </c>
       <c r="M29" s="7">
         <v>8472</v>
@@ -7967,13 +7907,13 @@
         <v>6985327</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>295</v>
+        <v>48</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8029,7 +7969,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A04-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A04-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B40D5FBD-AD21-4AC7-B959-8122AF023A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1CC89EB-99B5-4931-895A-C256A6E1ED68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9D5577B1-F4C8-4317-9DDE-A2C68C815D46}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EDD0F715-7147-4A43-B140-9EC0659101A5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="485">
   <si>
     <t>Población que ha consumido antibióticos en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,36%</t>
@@ -86,1393 +86,1411 @@
     <t>2,76%</t>
   </si>
   <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
   </si>
   <si>
     <t>98,82%</t>
   </si>
   <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
   </si>
   <si>
     <t>5,4%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
   </si>
   <si>
     <t>94,6%</t>
   </si>
   <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
   </si>
   <si>
     <t>2,8%</t>
   </si>
   <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
   </si>
   <si>
     <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
   </si>
   <si>
     <t>97,59%</t>
@@ -1887,7 +1905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188964C4-285C-4B4F-98AC-F5C2EE0F43E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D27487F-84E9-499F-969D-D184B35E05E1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2202,7 +2220,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2217,13 +2235,13 @@
         <v>487127</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>483</v>
@@ -2232,13 +2250,13 @@
         <v>488375</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>942</v>
@@ -2247,13 +2265,13 @@
         <v>975502</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2309,7 +2327,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2321,13 +2339,13 @@
         <v>949</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -2336,13 +2354,13 @@
         <v>2904</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -2351,13 +2369,13 @@
         <v>3854</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2372,10 +2390,10 @@
         <v>317897</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -2387,13 +2405,13 @@
         <v>332508</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>641</v>
@@ -2402,13 +2420,13 @@
         <v>650404</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2464,7 +2482,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2476,13 +2494,13 @@
         <v>6659</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -2491,13 +2509,13 @@
         <v>12101</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -2506,13 +2524,13 @@
         <v>18760</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2527,13 +2545,13 @@
         <v>352012</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>372</v>
@@ -2542,13 +2560,13 @@
         <v>359355</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>727</v>
@@ -2557,13 +2575,13 @@
         <v>711367</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2619,7 +2637,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2631,13 +2649,13 @@
         <v>895</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2646,13 +2664,13 @@
         <v>5078</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -2661,13 +2679,13 @@
         <v>5973</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,13 +2715,13 @@
         <v>202590</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>398</v>
@@ -2712,13 +2730,13 @@
         <v>405003</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2774,7 +2792,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2786,13 +2804,13 @@
         <v>3837</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -2801,13 +2819,13 @@
         <v>6982</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -2816,13 +2834,13 @@
         <v>10819</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,10 +2855,10 @@
         <v>266974</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>21</v>
@@ -2852,13 +2870,13 @@
         <v>271162</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>526</v>
@@ -2867,13 +2885,13 @@
         <v>538136</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,7 +2947,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2941,13 +2959,13 @@
         <v>10856</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -2956,13 +2974,13 @@
         <v>5785</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -2971,10 +2989,10 @@
         <v>16641</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>122</v>
@@ -2992,13 +3010,13 @@
         <v>604171</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H23" s="7">
         <v>615</v>
@@ -3007,13 +3025,13 @@
         <v>632434</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="M23" s="7">
         <v>1202</v>
@@ -3022,13 +3040,13 @@
         <v>1236605</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,7 +3102,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3096,13 +3114,13 @@
         <v>28542</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -3111,13 +3129,13 @@
         <v>19167</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -3126,13 +3144,13 @@
         <v>47709</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,13 +3165,13 @@
         <v>714235</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H26" s="7">
         <v>727</v>
@@ -3162,13 +3180,13 @@
         <v>764344</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M26" s="7">
         <v>1434</v>
@@ -3254,10 +3272,10 @@
         <v>146</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H28" s="7">
         <v>74</v>
@@ -3266,7 +3284,7 @@
         <v>74790</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>149</v>
@@ -3308,7 +3326,7 @@
         <v>155</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="H29" s="7">
         <v>3223</v>
@@ -3317,7 +3335,7 @@
         <v>3304408</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>157</v>
@@ -3329,7 +3347,7 @@
         <v>6377</v>
       </c>
       <c r="N29" s="7">
-        <v>6521271</v>
+        <v>6521270</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>159</v>
@@ -3380,7 +3398,7 @@
         <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3418,7 +3436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D21C703-5F4C-4A42-9D62-6671FA90719B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98AC7BA5-F915-4875-92DC-A1B852153800}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3679,13 +3697,13 @@
         <v>9497</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -3694,13 +3712,13 @@
         <v>7415</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -3709,13 +3727,13 @@
         <v>16912</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,13 +3748,13 @@
         <v>495136</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H8" s="7">
         <v>472</v>
@@ -3745,13 +3763,13 @@
         <v>515316</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>63</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>936</v>
@@ -3760,13 +3778,13 @@
         <v>1010452</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,7 +3840,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3834,13 +3852,13 @@
         <v>3981</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -3849,13 +3867,13 @@
         <v>7978</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -3864,13 +3882,13 @@
         <v>11959</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>183</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3903,13 @@
         <v>319135</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>187</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="H11" s="7">
         <v>309</v>
@@ -3900,13 +3918,13 @@
         <v>333042</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="M11" s="7">
         <v>623</v>
@@ -3915,13 +3933,13 @@
         <v>652177</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>59</v>
+        <v>190</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,7 +3995,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3989,13 +4007,13 @@
         <v>28323</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -4004,13 +4022,13 @@
         <v>31845</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -4019,13 +4037,13 @@
         <v>60168</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4058,13 @@
         <v>635863</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="H14" s="7">
         <v>592</v>
@@ -4055,13 +4073,13 @@
         <v>637514</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="M14" s="7">
         <v>1190</v>
@@ -4070,13 +4088,13 @@
         <v>1273377</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,7 +4150,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4144,13 +4162,13 @@
         <v>10457</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -4159,13 +4177,13 @@
         <v>10784</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>205</v>
+        <v>136</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -4174,13 +4192,13 @@
         <v>21241</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4213,13 @@
         <v>202161</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="H17" s="7">
         <v>201</v>
@@ -4210,13 +4228,13 @@
         <v>207809</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>214</v>
+        <v>145</v>
       </c>
       <c r="M17" s="7">
         <v>389</v>
@@ -4225,13 +4243,13 @@
         <v>409970</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,7 +4305,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4299,13 +4317,13 @@
         <v>3823</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>217</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -4314,13 +4332,13 @@
         <v>3773</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -4329,13 +4347,13 @@
         <v>7595</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>223</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,13 +4368,13 @@
         <v>270158</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>224</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="H20" s="7">
         <v>265</v>
@@ -4365,13 +4383,13 @@
         <v>275367</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M20" s="7">
         <v>522</v>
@@ -4380,13 +4398,13 @@
         <v>545526</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,7 +4460,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4454,13 +4472,13 @@
         <v>9956</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -4469,13 +4487,13 @@
         <v>13219</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -4484,13 +4502,13 @@
         <v>23175</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>239</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,13 +4523,13 @@
         <v>650640</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H23" s="7">
         <v>624</v>
@@ -4520,13 +4538,13 @@
         <v>680634</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M23" s="7">
         <v>1232</v>
@@ -4535,13 +4553,13 @@
         <v>1331275</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>158</v>
+        <v>248</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,7 +4615,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4609,13 +4627,13 @@
         <v>30769</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>247</v>
+        <v>72</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>248</v>
+        <v>131</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -4624,13 +4642,13 @@
         <v>26304</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
@@ -4639,13 +4657,13 @@
         <v>57073</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>252</v>
+        <v>107</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4660,13 +4678,13 @@
         <v>746203</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>256</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>257</v>
+        <v>140</v>
       </c>
       <c r="H26" s="7">
         <v>731</v>
@@ -4675,13 +4693,13 @@
         <v>795216</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M26" s="7">
         <v>1419</v>
@@ -4690,13 +4708,13 @@
         <v>1541419</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,13 +4782,13 @@
         <v>96805</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>265</v>
+        <v>107</v>
       </c>
       <c r="H28" s="7">
         <v>93</v>
@@ -4779,13 +4797,13 @@
         <v>101318</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>266</v>
+        <v>90</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>137</v>
+        <v>263</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M28" s="7">
         <v>176</v>
@@ -4794,13 +4812,13 @@
         <v>198123</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>34</v>
+        <v>266</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,13 +4833,13 @@
         <v>3319297</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>271</v>
+        <v>114</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H29" s="7">
         <v>3194</v>
@@ -4830,28 +4848,28 @@
         <v>3444899</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>273</v>
+        <v>97</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>145</v>
+        <v>271</v>
       </c>
       <c r="M29" s="7">
         <v>6311</v>
       </c>
       <c r="N29" s="7">
-        <v>6764196</v>
+        <v>6764197</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>42</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,7 +4911,7 @@
         <v>6487</v>
       </c>
       <c r="N30" s="7">
-        <v>6962319</v>
+        <v>6962320</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -4931,7 +4949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEA5826-8DE8-4F7C-A461-4AC8D7E6549F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59BAA55-8DAF-49EA-9491-EFF23DF04176}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4948,7 +4966,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5055,13 +5073,13 @@
         <v>4462</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>220</v>
+        <v>66</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -5070,13 +5088,13 @@
         <v>8732</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>280</v>
+        <v>181</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -5085,13 +5103,13 @@
         <v>13194</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>280</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>282</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,13 +5124,13 @@
         <v>289299</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>227</v>
+        <v>74</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H5" s="7">
         <v>269</v>
@@ -5121,13 +5139,13 @@
         <v>279971</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>285</v>
+        <v>187</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="M5" s="7">
         <v>531</v>
@@ -5136,13 +5154,13 @@
         <v>569270</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>287</v>
+        <v>173</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5210,13 +5228,13 @@
         <v>9555</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5225,13 +5243,13 @@
         <v>7044</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>56</v>
+        <v>288</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>233</v>
+        <v>19</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -5240,13 +5258,13 @@
         <v>16600</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5261,13 +5279,13 @@
         <v>493020</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H8" s="7">
         <v>477</v>
@@ -5276,13 +5294,13 @@
         <v>516040</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>240</v>
+        <v>28</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>63</v>
+        <v>293</v>
       </c>
       <c r="M8" s="7">
         <v>943</v>
@@ -5291,13 +5309,13 @@
         <v>1009059</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>296</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,7 +5371,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5365,13 +5383,13 @@
         <v>7508</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>212</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>298</v>
+        <v>86</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5380,13 +5398,13 @@
         <v>6725</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -5395,13 +5413,13 @@
         <v>14233</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>304</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5416,13 +5434,13 @@
         <v>311057</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>306</v>
+        <v>95</v>
       </c>
       <c r="H11" s="7">
         <v>325</v>
@@ -5431,13 +5449,13 @@
         <v>329584</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M11" s="7">
         <v>652</v>
@@ -5446,13 +5464,13 @@
         <v>640641</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>310</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,7 +5526,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5520,13 +5538,13 @@
         <v>9201</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -5535,13 +5553,13 @@
         <v>10088</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>316</v>
+        <v>37</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -5550,13 +5568,13 @@
         <v>19289</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>17</v>
+        <v>310</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>135</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5571,13 +5589,13 @@
         <v>360763</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="H14" s="7">
         <v>349</v>
@@ -5586,13 +5604,13 @@
         <v>377195</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>321</v>
+        <v>44</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M14" s="7">
         <v>694</v>
@@ -5601,13 +5619,13 @@
         <v>737958</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>142</v>
+        <v>318</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>27</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,7 +5681,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5675,13 +5693,13 @@
         <v>3477</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5690,13 +5708,13 @@
         <v>6502</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>207</v>
+        <v>321</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -5705,13 +5723,13 @@
         <v>9979</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>138</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5726,13 +5744,13 @@
         <v>207744</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H17" s="7">
         <v>217</v>
@@ -5741,13 +5759,13 @@
         <v>212085</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>216</v>
+        <v>327</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M17" s="7">
         <v>426</v>
@@ -5759,10 +5777,10 @@
         <v>145</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>144</v>
+        <v>330</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,7 +5836,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5830,13 +5848,13 @@
         <v>3554</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -5845,13 +5863,13 @@
         <v>2775</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>119</v>
+        <v>333</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -5860,13 +5878,13 @@
         <v>6329</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>15</v>
+        <v>335</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>336</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5881,10 +5899,10 @@
         <v>259569</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>21</v>
@@ -5896,13 +5914,13 @@
         <v>270340</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>340</v>
       </c>
       <c r="M20" s="7">
         <v>515</v>
@@ -5911,13 +5929,13 @@
         <v>529909</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>26</v>
+        <v>341</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>342</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,7 +5991,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5985,13 +6003,13 @@
         <v>21319</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -6000,13 +6018,13 @@
         <v>19173</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>343</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>344</v>
+        <v>289</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M22" s="7">
         <v>34</v>
@@ -6015,13 +6033,13 @@
         <v>40492</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>86</v>
+        <v>349</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6036,13 +6054,13 @@
         <v>635239</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H23" s="7">
         <v>630</v>
@@ -6051,13 +6069,13 @@
         <v>672121</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>351</v>
+        <v>157</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>353</v>
+        <v>294</v>
       </c>
       <c r="M23" s="7">
         <v>1192</v>
@@ -6066,13 +6084,13 @@
         <v>1307360</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>92</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6128,7 +6146,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6140,13 +6158,13 @@
         <v>10059</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -6155,13 +6173,13 @@
         <v>18924</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>360</v>
+        <v>121</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>265</v>
+        <v>362</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -6170,13 +6188,13 @@
         <v>28983</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6191,13 +6209,13 @@
         <v>768524</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H26" s="7">
         <v>738</v>
@@ -6206,13 +6224,13 @@
         <v>807243</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>271</v>
+        <v>370</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>368</v>
+        <v>127</v>
       </c>
       <c r="M26" s="7">
         <v>1478</v>
@@ -6221,13 +6239,13 @@
         <v>1575767</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,10 +6316,10 @@
         <v>13</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>372</v>
+        <v>71</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>292</v>
+        <v>131</v>
       </c>
       <c r="H28" s="7">
         <v>73</v>
@@ -6310,13 +6328,13 @@
         <v>79964</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>146</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>374</v>
+        <v>90</v>
       </c>
       <c r="M28" s="7">
         <v>138</v>
@@ -6328,10 +6346,10 @@
         <v>375</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6349,10 +6367,10 @@
         <v>22</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>296</v>
+        <v>140</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>377</v>
+        <v>81</v>
       </c>
       <c r="H29" s="7">
         <v>3265</v>
@@ -6361,10 +6379,10 @@
         <v>3464578</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>379</v>
+        <v>97</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>154</v>
@@ -6376,13 +6394,13 @@
         <v>6789794</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>381</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,7 +6480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00066F63-863D-4AE1-8856-CFC8309773ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A578A4-E096-4C5D-89CD-7B594652862A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6479,7 +6497,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6586,13 +6604,13 @@
         <v>795</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>383</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>384</v>
+        <v>152</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -6601,13 +6619,13 @@
         <v>5962</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -6616,13 +6634,13 @@
         <v>6756</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>303</v>
+        <v>383</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6637,10 +6655,10 @@
         <v>259503</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>389</v>
+        <v>188</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>390</v>
+        <v>161</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -6652,13 +6670,13 @@
         <v>265441</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>393</v>
+        <v>329</v>
       </c>
       <c r="M5" s="7">
         <v>857</v>
@@ -6667,13 +6685,13 @@
         <v>524944</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>311</v>
+        <v>387</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>388</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6741,13 +6759,13 @@
         <v>8312</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>344</v>
+        <v>71</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>222</v>
+        <v>389</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -6756,13 +6774,13 @@
         <v>12051</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>303</v>
+        <v>383</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>267</v>
+        <v>200</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -6771,13 +6789,13 @@
         <v>20363</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6792,13 +6810,13 @@
         <v>509915</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>353</v>
+        <v>81</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>230</v>
+        <v>395</v>
       </c>
       <c r="H8" s="7">
         <v>698</v>
@@ -6807,13 +6825,13 @@
         <v>541165</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>311</v>
+        <v>387</v>
       </c>
       <c r="M8" s="7">
         <v>1073</v>
@@ -6822,13 +6840,13 @@
         <v>1051080</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6884,7 +6902,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6896,13 +6914,13 @@
         <v>15399</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>316</v>
+        <v>399</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H10" s="7">
         <v>28</v>
@@ -6911,13 +6929,13 @@
         <v>18299</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M10" s="7">
         <v>45</v>
@@ -6926,13 +6944,13 @@
         <v>33698</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6947,13 +6965,13 @@
         <v>306321</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>321</v>
+        <v>407</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H11" s="7">
         <v>508</v>
@@ -6962,13 +6980,13 @@
         <v>354985</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="M11" s="7">
         <v>850</v>
@@ -6977,13 +6995,13 @@
         <v>661305</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7039,7 +7057,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7051,13 +7069,13 @@
         <v>2813</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>418</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -7066,13 +7084,13 @@
         <v>6139</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>420</v>
+        <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -7081,13 +7099,13 @@
         <v>8952</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>362</v>
+        <v>418</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>56</v>
+        <v>389</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>312</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7102,13 +7120,13 @@
         <v>319427</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>422</v>
+        <v>246</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H14" s="7">
         <v>590</v>
@@ -7117,13 +7135,13 @@
         <v>422061</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>426</v>
+        <v>29</v>
       </c>
       <c r="M14" s="7">
         <v>879</v>
@@ -7132,13 +7150,13 @@
         <v>741488</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>318</v>
+        <v>59</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>63</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7194,7 +7212,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7206,13 +7224,13 @@
         <v>1507</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>424</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -7221,13 +7239,13 @@
         <v>5335</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>173</v>
+        <v>426</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>247</v>
+        <v>427</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -7236,13 +7254,13 @@
         <v>6842</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>344</v>
+        <v>71</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>301</v>
+        <v>428</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7260,7 +7278,7 @@
         <v>429</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>240</v>
+        <v>430</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>23</v>
@@ -7272,13 +7290,13 @@
         <v>226568</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>255</v>
+        <v>432</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>178</v>
+        <v>433</v>
       </c>
       <c r="M17" s="7">
         <v>757</v>
@@ -7287,13 +7305,13 @@
         <v>421809</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>353</v>
+        <v>81</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>308</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7349,7 +7367,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7361,13 +7379,13 @@
         <v>12598</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>432</v>
+        <v>19</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -7376,13 +7394,13 @@
         <v>12802</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>266</v>
+        <v>393</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
@@ -7391,13 +7409,13 @@
         <v>25399</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7412,13 +7430,13 @@
         <v>264625</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>441</v>
+        <v>28</v>
       </c>
       <c r="H20" s="7">
         <v>438</v>
@@ -7427,13 +7445,13 @@
         <v>262820</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>273</v>
+        <v>397</v>
       </c>
       <c r="M20" s="7">
         <v>790</v>
@@ -7442,13 +7460,13 @@
         <v>527446</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7504,7 +7522,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7516,13 +7534,13 @@
         <v>30261</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>69</v>
+        <v>417</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H22" s="7">
         <v>70</v>
@@ -7531,13 +7549,13 @@
         <v>47120</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>191</v>
+        <v>451</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>105</v>
+        <v>452</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="M22" s="7">
         <v>99</v>
@@ -7546,13 +7564,13 @@
         <v>77381</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>71</v>
+        <v>454</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>450</v>
+        <v>167</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7567,13 +7585,13 @@
         <v>597493</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>78</v>
+        <v>421</v>
       </c>
       <c r="H23" s="7">
         <v>890</v>
@@ -7582,13 +7600,13 @@
         <v>757083</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>199</v>
+        <v>458</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>112</v>
+        <v>460</v>
       </c>
       <c r="M23" s="7">
         <v>1460</v>
@@ -7597,13 +7615,13 @@
         <v>1354576</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>79</v>
+        <v>461</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>456</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7659,7 +7677,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7671,13 +7689,13 @@
         <v>6911</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -7686,13 +7704,13 @@
         <v>14868</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>357</v>
+        <v>234</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -7701,13 +7719,13 @@
         <v>21779</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>470</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7722,13 +7740,13 @@
         <v>852517</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="H26" s="7">
         <v>1049</v>
@@ -7737,13 +7755,13 @@
         <v>850163</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>366</v>
+        <v>244</v>
       </c>
       <c r="M26" s="7">
         <v>1806</v>
@@ -7752,13 +7770,13 @@
         <v>1702680</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>157</v>
+        <v>477</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7826,13 +7844,13 @@
         <v>78595</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>471</v>
+        <v>363</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>280</v>
+        <v>334</v>
       </c>
       <c r="H28" s="7">
         <v>179</v>
@@ -7841,13 +7859,13 @@
         <v>122576</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>472</v>
+        <v>197</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="M28" s="7">
         <v>261</v>
@@ -7856,13 +7874,13 @@
         <v>201171</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>403</v>
+        <v>480</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>40</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7874,16 +7892,16 @@
         <v>3292</v>
       </c>
       <c r="D29" s="7">
-        <v>3305042</v>
+        <v>3305041</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>145</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>475</v>
+        <v>371</v>
       </c>
       <c r="H29" s="7">
         <v>5180</v>
@@ -7892,13 +7910,13 @@
         <v>3680286</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>476</v>
+        <v>207</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="M29" s="7">
         <v>8472</v>
@@ -7907,13 +7925,13 @@
         <v>6985327</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>411</v>
+        <v>483</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>48</v>
+        <v>394</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7925,7 +7943,7 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3383637</v>
+        <v>3383636</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16A04-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A04-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1CC89EB-99B5-4931-895A-C256A6E1ED68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1AB187B-E53F-49C8-B237-555DA398D567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EDD0F715-7147-4A43-B140-9EC0659101A5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1EA0EA98-8C49-4278-89B8-965218076794}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="510">
   <si>
     <t>Población que ha consumido antibióticos en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -533,7 +533,58 @@
     <t>Población que ha consumido antibióticos en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
   </si>
   <si>
     <t>1,88%</t>
@@ -620,880 +671,904 @@
     <t>98,95%</t>
   </si>
   <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
     <t>4,26%</t>
   </si>
   <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
     <t>2,88%</t>
   </si>
   <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
   </si>
   <si>
     <t>97,12%</t>
   </si>
   <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
   </si>
   <si>
     <t>97,8%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
   </si>
 </sst>
 </file>
@@ -1905,7 +1980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D27487F-84E9-499F-969D-D184B35E05E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2700B1D-1190-4E31-B54C-6ACD83BDEC6E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3332,7 +3407,7 @@
         <v>3223</v>
       </c>
       <c r="I29" s="7">
-        <v>3304408</v>
+        <v>3304407</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>156</v>
@@ -3383,7 +3458,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3436,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98AC7BA5-F915-4875-92DC-A1B852153800}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC2FC95-207E-4B27-AC10-109A50B8F696}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3554,43 +3629,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="D4" s="7">
+        <v>16197</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>164</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="I4" s="7">
+        <v>20524</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="N4" s="7">
+        <v>36721</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,43 +3680,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>264</v>
+      </c>
+      <c r="D5" s="7">
+        <v>274006</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>232</v>
+      </c>
+      <c r="I5" s="7">
+        <v>260861</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>496</v>
+      </c>
+      <c r="N5" s="7">
+        <v>534867</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,43 +3731,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>278</v>
+      </c>
+      <c r="D6" s="7">
+        <v>290203</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>164</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>164</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>164</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>251</v>
+      </c>
+      <c r="I6" s="7">
+        <v>281385</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>164</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>164</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>164</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>529</v>
+      </c>
+      <c r="N6" s="7">
+        <v>571588</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>164</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>164</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>164</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,13 +3790,13 @@
         <v>9497</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -3715,10 +3808,10 @@
         <v>100</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -3727,13 +3820,13 @@
         <v>16912</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>119</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,13 +3841,13 @@
         <v>495136</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>472</v>
@@ -3766,10 +3859,10 @@
         <v>108</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>936</v>
@@ -3778,10 +3871,10 @@
         <v>1010452</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>125</v>
@@ -3852,13 +3945,13 @@
         <v>3981</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -3873,7 +3966,7 @@
         <v>103</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -3882,13 +3975,13 @@
         <v>11959</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,13 +3996,13 @@
         <v>319135</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>309</v>
@@ -3921,7 +4014,7 @@
         <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>112</v>
@@ -3933,13 +4026,13 @@
         <v>652177</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,49 +4094,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>28323</v>
+        <v>12127</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>31845</v>
+        <v>11321</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>197</v>
+        <v>55</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="N13" s="7">
-        <v>60168</v>
+        <v>23447</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,49 +4145,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>598</v>
+        <v>334</v>
       </c>
       <c r="D14" s="7">
-        <v>635863</v>
+        <v>361855</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="H14" s="7">
-        <v>592</v>
+        <v>360</v>
       </c>
       <c r="I14" s="7">
-        <v>637514</v>
+        <v>376653</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>207</v>
+        <v>61</v>
       </c>
       <c r="M14" s="7">
-        <v>1190</v>
+        <v>694</v>
       </c>
       <c r="N14" s="7">
-        <v>1273377</v>
+        <v>738509</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,10 +4196,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>622</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>664186</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4118,10 +4211,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>621</v>
+        <v>370</v>
       </c>
       <c r="I15" s="7">
-        <v>669359</v>
+        <v>387974</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4133,10 +4226,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1243</v>
+        <v>714</v>
       </c>
       <c r="N15" s="7">
-        <v>1333545</v>
+        <v>761956</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4162,13 +4255,13 @@
         <v>10457</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -4177,13 +4270,13 @@
         <v>10784</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>136</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -4192,13 +4285,13 @@
         <v>21241</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,13 +4306,13 @@
         <v>202161</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H17" s="7">
         <v>201</v>
@@ -4228,10 +4321,10 @@
         <v>207809</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>145</v>
@@ -4243,13 +4336,13 @@
         <v>409970</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,7 +4416,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -4332,13 +4425,13 @@
         <v>3773</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -4347,10 +4440,10 @@
         <v>7595</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>150</v>
@@ -4371,7 +4464,7 @@
         <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>21</v>
@@ -4383,13 +4476,13 @@
         <v>275367</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="M20" s="7">
         <v>522</v>
@@ -4398,13 +4491,13 @@
         <v>545526</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>157</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,13 +4565,13 @@
         <v>9956</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -4487,13 +4580,13 @@
         <v>13219</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -4502,13 +4595,13 @@
         <v>23175</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,16 +4613,16 @@
         <v>608</v>
       </c>
       <c r="D23" s="7">
-        <v>650640</v>
+        <v>650641</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="H23" s="7">
         <v>624</v>
@@ -4538,13 +4631,13 @@
         <v>680634</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="M23" s="7">
         <v>1232</v>
@@ -4553,13 +4646,13 @@
         <v>1331275</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,7 +4664,7 @@
         <v>617</v>
       </c>
       <c r="D24" s="7">
-        <v>660596</v>
+        <v>660597</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -4633,7 +4726,7 @@
         <v>131</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -4642,13 +4735,13 @@
         <v>26304</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
@@ -4660,10 +4753,10 @@
         <v>107</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,7 +4774,7 @@
         <v>80</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>140</v>
@@ -4693,13 +4786,13 @@
         <v>795216</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="M26" s="7">
         <v>1419</v>
@@ -4711,10 +4804,10 @@
         <v>114</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,10 +4875,10 @@
         <v>96805</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>107</v>
@@ -4800,10 +4893,10 @@
         <v>90</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="M28" s="7">
         <v>176</v>
@@ -4812,13 +4905,13 @@
         <v>198123</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,16 +4923,16 @@
         <v>3117</v>
       </c>
       <c r="D29" s="7">
-        <v>3319297</v>
+        <v>3319298</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>114</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="H29" s="7">
         <v>3194</v>
@@ -4851,10 +4944,10 @@
         <v>97</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="M29" s="7">
         <v>6311</v>
@@ -4863,13 +4956,13 @@
         <v>6764197</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,7 +4974,7 @@
         <v>3200</v>
       </c>
       <c r="D30" s="7">
-        <v>3416102</v>
+        <v>3416103</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -4949,7 +5042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59BAA55-8DAF-49EA-9491-EFF23DF04176}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C5BAE5-EBB5-4B68-8D89-21F63BC68190}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4966,7 +5059,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5073,10 +5166,10 @@
         <v>4462</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>276</v>
+        <v>211</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>66</v>
@@ -5088,13 +5181,13 @@
         <v>8732</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -5103,13 +5196,13 @@
         <v>13194</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,13 +5217,13 @@
         <v>289299</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>281</v>
+        <v>220</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>74</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="H5" s="7">
         <v>269</v>
@@ -5139,13 +5232,13 @@
         <v>279971</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="M5" s="7">
         <v>531</v>
@@ -5154,13 +5247,13 @@
         <v>569270</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5228,13 +5321,13 @@
         <v>9555</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>200</v>
+        <v>303</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5243,10 +5336,10 @@
         <v>7044</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>19</v>
@@ -5258,13 +5351,13 @@
         <v>16600</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>86</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,13 +5372,13 @@
         <v>493020</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>210</v>
+        <v>308</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="H8" s="7">
         <v>477</v>
@@ -5294,13 +5387,13 @@
         <v>516040</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="M8" s="7">
         <v>943</v>
@@ -5309,10 +5402,10 @@
         <v>1009059</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>95</v>
@@ -5383,13 +5476,13 @@
         <v>7508</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>86</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5398,10 +5491,10 @@
         <v>6725</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>72</v>
@@ -5413,10 +5506,10 @@
         <v>14233</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>66</v>
@@ -5434,10 +5527,10 @@
         <v>311057</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>95</v>
@@ -5449,13 +5542,13 @@
         <v>329584</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>80</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="M11" s="7">
         <v>652</v>
@@ -5464,13 +5557,13 @@
         <v>640641</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>74</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,13 +5631,13 @@
         <v>9201</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -5553,10 +5646,10 @@
         <v>10088</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>37</v>
@@ -5568,13 +5661,13 @@
         <v>19289</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,13 +5682,13 @@
         <v>360763</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="H14" s="7">
         <v>349</v>
@@ -5604,13 +5697,13 @@
         <v>377195</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="M14" s="7">
         <v>694</v>
@@ -5619,13 +5712,13 @@
         <v>737958</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,13 +5786,13 @@
         <v>3477</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5708,13 +5801,13 @@
         <v>6502</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -5726,10 +5819,10 @@
         <v>136</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5744,13 +5837,13 @@
         <v>207744</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="H17" s="7">
         <v>217</v>
@@ -5759,13 +5852,13 @@
         <v>212085</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="M17" s="7">
         <v>426</v>
@@ -5777,10 +5870,10 @@
         <v>145</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,13 +5941,13 @@
         <v>3554</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -5863,13 +5956,13 @@
         <v>2775</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -5878,13 +5971,13 @@
         <v>6329</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5899,10 +5992,10 @@
         <v>259569</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>21</v>
@@ -5914,13 +6007,13 @@
         <v>270340</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="M20" s="7">
         <v>515</v>
@@ -5929,13 +6022,13 @@
         <v>529909</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,13 +6096,13 @@
         <v>21319</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>344</v>
+        <v>165</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -6021,10 +6114,10 @@
         <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="M22" s="7">
         <v>34</v>
@@ -6033,13 +6126,13 @@
         <v>40492</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6054,13 +6147,13 @@
         <v>635239</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>351</v>
+        <v>175</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="H23" s="7">
         <v>630</v>
@@ -6072,10 +6165,10 @@
         <v>157</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="M23" s="7">
         <v>1192</v>
@@ -6084,13 +6177,13 @@
         <v>1307360</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,13 +6251,13 @@
         <v>10059</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -6173,13 +6266,13 @@
         <v>18924</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>121</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -6188,13 +6281,13 @@
         <v>28983</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6209,13 +6302,13 @@
         <v>768524</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="H26" s="7">
         <v>738</v>
@@ -6224,10 +6317,10 @@
         <v>807243</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>127</v>
@@ -6239,13 +6332,13 @@
         <v>1575767</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6328,7 +6421,7 @@
         <v>79964</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>146</v>
@@ -6343,13 +6436,13 @@
         <v>149098</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>120</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,7 +6472,7 @@
         <v>3464578</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>97</v>
@@ -6394,10 +6487,10 @@
         <v>6789794</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>126</v>
@@ -6480,7 +6573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A578A4-E096-4C5D-89CD-7B594652862A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA13DAF-318B-4FA6-BBB6-43F30308FB27}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6497,7 +6590,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6601,46 +6694,46 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>795</v>
+        <v>883</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>152</v>
+        <v>396</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>5962</v>
+        <v>6772</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>381</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>106</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
       </c>
       <c r="N4" s="7">
-        <v>6756</v>
+        <v>7655</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,13 +6745,13 @@
         <v>330</v>
       </c>
       <c r="D5" s="7">
-        <v>259503</v>
+        <v>310560</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>188</v>
+        <v>60</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>161</v>
+        <v>401</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -6667,31 +6760,31 @@
         <v>527</v>
       </c>
       <c r="I5" s="7">
-        <v>265441</v>
+        <v>282863</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>385</v>
+        <v>155</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>329</v>
+        <v>115</v>
       </c>
       <c r="M5" s="7">
         <v>857</v>
       </c>
       <c r="N5" s="7">
-        <v>524944</v>
+        <v>593422</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,7 +6796,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -6718,7 +6811,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -6733,7 +6826,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -6756,46 +6849,46 @@
         <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>8312</v>
+        <v>8082</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>71</v>
+        <v>406</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
       </c>
       <c r="I7" s="7">
-        <v>12051</v>
+        <v>11196</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>200</v>
+        <v>303</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
       </c>
       <c r="N7" s="7">
-        <v>20363</v>
+        <v>19278</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>286</v>
+        <v>411</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>392</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6807,46 +6900,46 @@
         <v>375</v>
       </c>
       <c r="D8" s="7">
-        <v>509915</v>
+        <v>509311</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>81</v>
+        <v>413</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="H8" s="7">
         <v>698</v>
       </c>
       <c r="I8" s="7">
-        <v>541165</v>
+        <v>502529</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>210</v>
+        <v>308</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>387</v>
+        <v>417</v>
       </c>
       <c r="M8" s="7">
         <v>1073</v>
       </c>
       <c r="N8" s="7">
-        <v>1051080</v>
+        <v>1011840</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>291</v>
+        <v>418</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>398</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6858,7 +6951,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6873,7 +6966,7 @@
         <v>715</v>
       </c>
       <c r="I9" s="7">
-        <v>553216</v>
+        <v>513725</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6888,7 +6981,7 @@
         <v>1096</v>
       </c>
       <c r="N9" s="7">
-        <v>1071443</v>
+        <v>1031118</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6911,46 +7004,46 @@
         <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>15399</v>
+        <v>15057</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>399</v>
+        <v>323</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="H10" s="7">
         <v>28</v>
       </c>
       <c r="I10" s="7">
-        <v>18299</v>
+        <v>17077</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="M10" s="7">
         <v>45</v>
       </c>
       <c r="N10" s="7">
-        <v>33698</v>
+        <v>32134</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>264</v>
+        <v>426</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6962,46 +7055,46 @@
         <v>342</v>
       </c>
       <c r="D11" s="7">
-        <v>306321</v>
+        <v>300503</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>407</v>
+        <v>330</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="H11" s="7">
         <v>508</v>
       </c>
       <c r="I11" s="7">
-        <v>354985</v>
+        <v>332051</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="M11" s="7">
         <v>850</v>
       </c>
       <c r="N11" s="7">
-        <v>661305</v>
+        <v>632554</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>270</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7013,7 +7106,7 @@
         <v>359</v>
       </c>
       <c r="D12" s="7">
-        <v>321720</v>
+        <v>315560</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7028,7 +7121,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7043,7 +7136,7 @@
         <v>895</v>
       </c>
       <c r="N12" s="7">
-        <v>695003</v>
+        <v>664688</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7066,46 +7159,46 @@
         <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>2813</v>
+        <v>2841</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>238</v>
+        <v>437</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>6139</v>
+        <v>5449</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
       </c>
       <c r="N13" s="7">
-        <v>8952</v>
+        <v>8290</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>418</v>
+        <v>201</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>389</v>
+        <v>441</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7117,46 +7210,46 @@
         <v>289</v>
       </c>
       <c r="D14" s="7">
-        <v>319427</v>
+        <v>309716</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>246</v>
+        <v>443</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="H14" s="7">
         <v>590</v>
       </c>
       <c r="I14" s="7">
-        <v>422061</v>
+        <v>469938</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>29</v>
+        <v>447</v>
       </c>
       <c r="M14" s="7">
         <v>879</v>
       </c>
       <c r="N14" s="7">
-        <v>741488</v>
+        <v>779654</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>422</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>448</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>395</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7168,7 +7261,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7183,7 +7276,7 @@
         <v>598</v>
       </c>
       <c r="I15" s="7">
-        <v>428200</v>
+        <v>475387</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7198,7 +7291,7 @@
         <v>890</v>
       </c>
       <c r="N15" s="7">
-        <v>750440</v>
+        <v>787944</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7221,43 +7314,43 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1507</v>
+        <v>1359</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
       </c>
       <c r="I16" s="7">
-        <v>5335</v>
+        <v>4809</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>426</v>
+        <v>103</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
       </c>
       <c r="N16" s="7">
-        <v>6842</v>
+        <v>6168</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>71</v>
+        <v>454</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>19</v>
@@ -7272,13 +7365,13 @@
         <v>277</v>
       </c>
       <c r="D17" s="7">
-        <v>195241</v>
+        <v>177383</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>23</v>
@@ -7287,31 +7380,31 @@
         <v>480</v>
       </c>
       <c r="I17" s="7">
-        <v>226568</v>
+        <v>203847</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>432</v>
+        <v>459</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>433</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>757</v>
       </c>
       <c r="N17" s="7">
-        <v>421809</v>
+        <v>381230</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>460</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>28</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>434</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7323,7 +7416,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7338,7 +7431,7 @@
         <v>492</v>
       </c>
       <c r="I18" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7353,7 +7446,7 @@
         <v>771</v>
       </c>
       <c r="N18" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7376,46 +7469,46 @@
         <v>19</v>
       </c>
       <c r="D19" s="7">
-        <v>12598</v>
+        <v>12118</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>463</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
       </c>
       <c r="I19" s="7">
-        <v>12802</v>
+        <v>11867</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>393</v>
+        <v>466</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>438</v>
+        <v>467</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
       </c>
       <c r="N19" s="7">
-        <v>25399</v>
+        <v>23985</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>439</v>
+        <v>468</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>440</v>
+        <v>67</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>441</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7427,46 +7520,46 @@
         <v>352</v>
       </c>
       <c r="D20" s="7">
-        <v>264625</v>
+        <v>257518</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>28</v>
+        <v>472</v>
       </c>
       <c r="H20" s="7">
         <v>438</v>
       </c>
       <c r="I20" s="7">
-        <v>262820</v>
+        <v>245189</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>444</v>
+        <v>473</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>397</v>
+        <v>475</v>
       </c>
       <c r="M20" s="7">
         <v>790</v>
       </c>
       <c r="N20" s="7">
-        <v>527446</v>
+        <v>502707</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>448</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7478,7 +7571,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7493,7 +7586,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7508,7 +7601,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7531,46 +7624,46 @@
         <v>29</v>
       </c>
       <c r="D22" s="7">
-        <v>30261</v>
+        <v>29040</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>449</v>
+        <v>478</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>417</v>
+        <v>479</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="H22" s="7">
         <v>70</v>
       </c>
       <c r="I22" s="7">
-        <v>47120</v>
+        <v>42709</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>452</v>
+        <v>102</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="M22" s="7">
         <v>99</v>
       </c>
       <c r="N22" s="7">
-        <v>77381</v>
+        <v>71749</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7582,46 +7675,46 @@
         <v>570</v>
       </c>
       <c r="D23" s="7">
-        <v>597493</v>
+        <v>595239</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>457</v>
+        <v>486</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>421</v>
+        <v>487</v>
       </c>
       <c r="H23" s="7">
         <v>890</v>
       </c>
       <c r="I23" s="7">
-        <v>757083</v>
+        <v>806556</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>460</v>
+        <v>110</v>
       </c>
       <c r="M23" s="7">
         <v>1460</v>
       </c>
       <c r="N23" s="7">
-        <v>1354576</v>
+        <v>1401795</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>461</v>
+        <v>490</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>462</v>
+        <v>491</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7633,7 +7726,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7648,7 +7741,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7663,7 +7756,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -7686,46 +7779,46 @@
         <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>6911</v>
+        <v>5813</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>463</v>
+        <v>399</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>464</v>
+        <v>492</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>465</v>
+        <v>493</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
       </c>
       <c r="I25" s="7">
-        <v>14868</v>
+        <v>11779</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>466</v>
+        <v>187</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>234</v>
+        <v>494</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>467</v>
+        <v>495</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
       </c>
       <c r="N25" s="7">
-        <v>21779</v>
+        <v>17591</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>468</v>
+        <v>341</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>469</v>
+        <v>441</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>470</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7737,46 +7830,46 @@
         <v>757</v>
       </c>
       <c r="D26" s="7">
-        <v>852517</v>
+        <v>922907</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>471</v>
+        <v>405</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="H26" s="7">
         <v>1049</v>
       </c>
       <c r="I26" s="7">
-        <v>850163</v>
+        <v>703072</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>474</v>
+        <v>194</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>244</v>
+        <v>499</v>
       </c>
       <c r="M26" s="7">
         <v>1806</v>
       </c>
       <c r="N26" s="7">
-        <v>1702680</v>
+        <v>1625981</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>476</v>
+        <v>348</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>477</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>478</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7788,7 +7881,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -7803,7 +7896,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>865031</v>
+        <v>714851</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -7818,7 +7911,7 @@
         <v>1822</v>
       </c>
       <c r="N27" s="7">
-        <v>1724459</v>
+        <v>1643572</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -7841,46 +7934,46 @@
         <v>82</v>
       </c>
       <c r="D28" s="7">
-        <v>78595</v>
+        <v>75194</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>136</v>
+        <v>316</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>363</v>
+        <v>454</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>334</v>
+        <v>500</v>
       </c>
       <c r="H28" s="7">
         <v>179</v>
       </c>
       <c r="I28" s="7">
-        <v>122576</v>
+        <v>111657</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>197</v>
+        <v>501</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>241</v>
+        <v>375</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>479</v>
+        <v>502</v>
       </c>
       <c r="M28" s="7">
         <v>261</v>
       </c>
       <c r="N28" s="7">
-        <v>201171</v>
+        <v>186852</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>390</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7892,46 +7985,46 @@
         <v>3292</v>
       </c>
       <c r="D29" s="7">
-        <v>3305041</v>
+        <v>3383136</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>145</v>
+        <v>320</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>339</v>
+        <v>505</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>371</v>
+        <v>460</v>
       </c>
       <c r="H29" s="7">
         <v>5180</v>
       </c>
       <c r="I29" s="7">
-        <v>3680286</v>
+        <v>3546045</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>207</v>
+        <v>506</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>249</v>
+        <v>382</v>
       </c>
       <c r="M29" s="7">
         <v>8472</v>
       </c>
       <c r="N29" s="7">
-        <v>6985327</v>
+        <v>6929180</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>394</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7943,7 +8036,7 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3383636</v>
+        <v>3458330</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -7958,7 +8051,7 @@
         <v>5359</v>
       </c>
       <c r="I30" s="7">
-        <v>3802862</v>
+        <v>3657702</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -7973,7 +8066,7 @@
         <v>8733</v>
       </c>
       <c r="N30" s="7">
-        <v>7186498</v>
+        <v>7116032</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
